--- a/data/trans_dic/P29_R2_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P29_R2_2023-Dificultad-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0.2117919736355341</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.03190014396559974</v>
+        <v>0.03190014396559973</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.1117431859218266</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1768987804238279</v>
+        <v>0.1774965362887748</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02075365206892477</v>
+        <v>0.02164409946409668</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.09416762588635189</v>
+        <v>0.09373707149352135</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2539610618320874</v>
+        <v>0.2539132431576229</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04537230341210528</v>
+        <v>0.04586573864515513</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.130641727056894</v>
+        <v>0.1323931510833832</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1597398818398041</v>
+        <v>0.1596443965509423</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02165305179719696</v>
+        <v>0.02187753537956802</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.09077993098332621</v>
+        <v>0.08971493326255543</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.210533005909045</v>
+        <v>0.2101123670989318</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03975614302062717</v>
+        <v>0.04091801398886996</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1143366635031354</v>
+        <v>0.1156482603529086</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1381530351877721</v>
+        <v>0.1400637090841083</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01883505691824865</v>
+        <v>0.0188236834108489</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.08074675899177271</v>
+        <v>0.08138833619213318</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1854739286626599</v>
+        <v>0.1823541229582008</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03375758891084495</v>
+        <v>0.03501915756471444</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1049386335402684</v>
+        <v>0.1057855392494287</v>
       </c>
     </row>
     <row r="13">
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.124905351456757</v>
+        <v>0.1249053514567569</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.04299074147329806</v>
+        <v>0.04299074147329807</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.08544221463117016</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.106895201189156</v>
+        <v>0.1053364942651944</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03222129679632428</v>
+        <v>0.0330533363924001</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.073555214942266</v>
+        <v>0.07519229716448869</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1472679126572755</v>
+        <v>0.1438160430748733</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05496300494100692</v>
+        <v>0.05589079083806322</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.0972734550790694</v>
+        <v>0.09860941793021906</v>
       </c>
     </row>
     <row r="16">
@@ -787,10 +787,10 @@
         <v>0.1640633785948261</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.03239926554821993</v>
+        <v>0.03239926554821994</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.09627669210799782</v>
+        <v>0.0962766921079978</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1523504900966044</v>
+        <v>0.1529033862605236</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02819963057641554</v>
+        <v>0.02814902158250725</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.08945028003416208</v>
+        <v>0.08991722581233091</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1776463023153633</v>
+        <v>0.1781346437644739</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.0373575895569179</v>
+        <v>0.03772761124057477</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1030171949155079</v>
+        <v>0.103427665062784</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>87797</v>
+        <v>88093</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>12907</v>
+        <v>13461</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>105300</v>
+        <v>104819</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>126043</v>
+        <v>126020</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>28217</v>
+        <v>28524</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>146086</v>
+        <v>148045</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>153252</v>
+        <v>153160</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>24101</v>
+        <v>24351</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>188134</v>
+        <v>185927</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>201982</v>
+        <v>201578</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>44250</v>
+        <v>45543</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>236954</v>
+        <v>239672</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>144446</v>
+        <v>146444</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>19732</v>
+        <v>19720</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>169019</v>
+        <v>170362</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>193923</v>
+        <v>190661</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>35366</v>
+        <v>36688</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>219657</v>
+        <v>221430</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>104196</v>
+        <v>102676</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>29197</v>
+        <v>29951</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>138348</v>
+        <v>141427</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>143549</v>
+        <v>140184</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>49804</v>
+        <v>50644</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>182959</v>
+        <v>185472</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>529569</v>
+        <v>531491</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>104021</v>
+        <v>103834</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>640885</v>
+        <v>644231</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>617497</v>
+        <v>619195</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>137802</v>
+        <v>139167</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>738089</v>
+        <v>741029</v>
       </c>
     </row>
     <row r="24">
